--- a/src/main/resources/templates/container/default.xlsx
+++ b/src/main/resources/templates/container/default.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BEB4F-067A-F749-9F71-ADD931BB33FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3867B-1312-1C4E-A57D-55FF0583307E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="21800" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,18 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,60 +504,61 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="256" width="8.83203125" style="6" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f>SUM(D4)</f>
         <v>0</v>
       </c>
